--- a/ugv/production_v1/parts_list.xlsx
+++ b/ugv/production_v1/parts_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuma/github/picam360-hardware/ugv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuma/github/picam360-hardware/ugv/production_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -88,9 +88,6 @@
     <t>3D Printed Parts</t>
   </si>
   <si>
-    <t>4pin 2.0mm socket</t>
-  </si>
-  <si>
     <t>B4B-PH-K-S</t>
   </si>
   <si>
@@ -241,13 +238,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2pin 2.0mm connector</t>
-  </si>
-  <si>
     <t>PH-2</t>
-  </si>
-  <si>
-    <t>4pin 2.0mm connector</t>
   </si>
   <si>
     <t>PH-4</t>
@@ -314,6 +305,50 @@
   </si>
   <si>
     <t>power_cable_2line_AGW24 (20mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC plug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>battery box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>battery cable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2pin 2.0mm socket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4pin 2.0mm socket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ph contact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4pin 2.0mm connector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arm.stl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 more spares</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>going to be discontinued</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -321,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +417,28 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -420,7 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,6 +485,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -449,75 +512,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -564,8 +559,59 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Yu Gothic"/>
+        <color theme="1"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="HGPｺﾞｼｯｸE"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -582,7 +628,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <name val="Yu Gothic"/>
+        <name val="HGPｺﾞｼｯｸE"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -599,7 +645,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <name val="Yu Gothic"/>
+        <name val="HGPｺﾞｼｯｸE"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -614,9 +660,61 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="HGPｺﾞｼｯｸE"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="HGPｺﾞｼｯｸE"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1023,60 +1121,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:I10" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:I10"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="30">
-      <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:J11" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:J11"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="No" dataDxfId="32">
+      <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Parts Type" dataDxfId="29"/>
-    <tableColumn id="3" name="Sub No" dataDxfId="28"/>
-    <tableColumn id="4" name="Parts Name" dataDxfId="27"/>
-    <tableColumn id="5" name="Num" dataDxfId="26"/>
-    <tableColumn id="6" name="Parts Number" dataDxfId="25"/>
-    <tableColumn id="7" name="Supplyer" dataDxfId="24"/>
-    <tableColumn id="8" name="Check" dataDxfId="23"/>
-    <tableColumn id="9" name="URL" dataDxfId="22"/>
+    <tableColumn id="2" name="Parts Type" dataDxfId="31"/>
+    <tableColumn id="3" name="Sub No" dataDxfId="30"/>
+    <tableColumn id="4" name="Parts Name" dataDxfId="29"/>
+    <tableColumn id="5" name="Num" dataDxfId="28"/>
+    <tableColumn id="6" name="Parts Number" dataDxfId="27"/>
+    <tableColumn id="7" name="Supplyer" dataDxfId="26"/>
+    <tableColumn id="10" name="Note" dataDxfId="0"/>
+    <tableColumn id="8" name="Check" dataDxfId="25"/>
+    <tableColumn id="9" name="URL" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A1:I26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:I26"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A1:J28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:J28"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="No" dataDxfId="21">
       <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Parts Type" dataDxfId="18"/>
-    <tableColumn id="3" name="Sub No" dataDxfId="17"/>
-    <tableColumn id="4" name="Parts Name" dataDxfId="16"/>
-    <tableColumn id="5" name="Num" dataDxfId="15"/>
-    <tableColumn id="6" name="Parts Number" dataDxfId="14"/>
-    <tableColumn id="7" name="Supplyer" dataDxfId="13"/>
-    <tableColumn id="8" name="Check" dataDxfId="12"/>
-    <tableColumn id="9" name="URL" dataDxfId="11"/>
+    <tableColumn id="2" name="Parts Type" dataDxfId="20"/>
+    <tableColumn id="3" name="Sub No" dataDxfId="19"/>
+    <tableColumn id="4" name="Parts Name" dataDxfId="18"/>
+    <tableColumn id="5" name="Num" dataDxfId="17"/>
+    <tableColumn id="6" name="Parts Number" dataDxfId="16"/>
+    <tableColumn id="7" name="Supplyer" dataDxfId="15"/>
+    <tableColumn id="10" name="Note" dataDxfId="1"/>
+    <tableColumn id="8" name="Check" dataDxfId="14"/>
+    <tableColumn id="9" name="URL" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="8">
-      <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
+    <tableColumn id="1" name="No" dataDxfId="10">
+      <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Parts Type" dataDxfId="7"/>
-    <tableColumn id="3" name="Sub No" dataDxfId="6"/>
-    <tableColumn id="4" name="Parts Name" dataDxfId="5"/>
-    <tableColumn id="5" name="Num" dataDxfId="4"/>
-    <tableColumn id="6" name="Parts Number" dataDxfId="3"/>
-    <tableColumn id="7" name="Supplyer" dataDxfId="2"/>
-    <tableColumn id="8" name="Check" dataDxfId="1"/>
-    <tableColumn id="9" name="URL" dataDxfId="0"/>
+    <tableColumn id="2" name="Parts Type" dataDxfId="9"/>
+    <tableColumn id="3" name="Sub No" dataDxfId="8"/>
+    <tableColumn id="4" name="Parts Name" dataDxfId="7"/>
+    <tableColumn id="5" name="Num" dataDxfId="6"/>
+    <tableColumn id="6" name="Parts Number" dataDxfId="5"/>
+    <tableColumn id="7" name="Supplyer" dataDxfId="4"/>
+    <tableColumn id="8" name="Check" dataDxfId="3"/>
+    <tableColumn id="9" name="URL" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1364,25 +1464,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1</v>
@@ -1390,13 +1490,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1408,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
@@ -1416,19 +1516,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
@@ -1436,19 +1536,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
@@ -1456,13 +1556,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5">
         <v>20</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
@@ -1470,13 +1570,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5">
         <v>100</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
@@ -1490,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1502,17 +1602,18 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1527,12 +1628,14 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1548,11 +1651,12 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
-        <v>010002_001001</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
+        <v>010001_001001</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1586,11 +1690,12 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
-        <v>010002_001002</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
+        <v>010001_001002</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1624,11 +1729,12 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
-        <v>010002_001003</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
+        <v>010001_001003</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1662,11 +1768,12 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
-        <v>010002_010001</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
+        <v>010001_010001</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1675,14 +1782,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1700,20 +1807,21 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
-        <v>010002_010001</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
+        <v>010001_010002</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1741,11 +1849,12 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
-        <v>010002_020001</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
+        <v>010001_020001</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -1754,18 +1863,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1783,11 +1892,12 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
-        <v>010002_020002</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
+        <v>010001_020002</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
@@ -1796,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1824,34 +1934,31 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
-        <v>010002_100001</v>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
+        <v>010001_020003</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1868,35 +1975,39 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
-        <v>010002_100002</v>
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
+        <v>010001_100001</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1912,12 +2023,58 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B11,"000")&amp;TEXT(C11,"000")</f>
+        <v>010001_100002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1"/>
-    <hyperlink ref="I10" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1928,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1941,17 +2098,19 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="10" max="10" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1966,12 +2125,14 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1990,8 +2151,9 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
         <v>010002_001001</v>
@@ -2003,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -2031,8 +2193,9 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
         <v>010002_001002</v>
@@ -2044,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2072,8 +2235,9 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
         <v>010002_001003</v>
@@ -2085,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2113,8 +2277,9 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
         <v>010002_001004</v>
@@ -2126,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2154,8 +2319,9 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
         <v>010002_001005</v>
@@ -2167,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -2195,8 +2361,9 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
         <v>010002_001006</v>
@@ -2208,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2236,8 +2403,9 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
         <v>010002_001007</v>
@@ -2249,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2277,8 +2445,9 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
         <v>010002_001008</v>
@@ -2290,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2318,8 +2487,9 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
         <v>010002_001009</v>
@@ -2334,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2359,8 +2529,9 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B11,"000")&amp;TEXT(C11,"000")</f>
         <v>010002_001010</v>
@@ -2372,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2400,8 +2571,9 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B12,"000")&amp;TEXT(C12,"000")</f>
         <v>010002_001011</v>
@@ -2413,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2441,8 +2613,9 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B13,"000")&amp;TEXT(C13,"000")</f>
         <v>010002_001012</v>
@@ -2454,10 +2627,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2482,27 +2655,28 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B14,"000")&amp;TEXT(C14,"000")</f>
-        <v>010002_002001</v>
+        <v>010002_001013</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2523,27 +2697,28 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B15,"000")&amp;TEXT(C15,"000")</f>
-        <v>010002_010001</v>
+        <v>010002_002001</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2564,26 +2739,27 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B16,"000")&amp;TEXT(C16,"000")</f>
-        <v>010002_010002</v>
+        <v>010002_010001</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
       </c>
       <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2605,27 +2781,28 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B17,"000")&amp;TEXT(C17,"000")</f>
-        <v>010002_010003</v>
+        <v>010002_010002</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2646,30 +2823,29 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B18,"000")&amp;TEXT(C18,"000")</f>
-        <v>010002_020001</v>
+        <v>010002_010003</v>
       </c>
       <c r="B18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2689,31 +2865,32 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B19,"000")&amp;TEXT(C19,"000")</f>
-        <v>010002_020002</v>
+        <v>010002_020001</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2732,31 +2909,32 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B20,"000")&amp;TEXT(C20,"000")</f>
-        <v>010002_020003</v>
+        <v>010002_020002</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2775,31 +2953,30 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B21,"000")&amp;TEXT(C21,"000")</f>
-        <v>010002_020004</v>
+        <v>010002_020003</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2820,31 +2997,32 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B22,"000")&amp;TEXT(C22,"000")</f>
-        <v>010002_020005</v>
+        <v>010002_020004</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2865,27 +3043,30 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B23,"000")&amp;TEXT(C23,"000")</f>
-        <v>010002_020006</v>
+        <v>010002_020005</v>
       </c>
       <c r="B23" s="1">
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2906,23 +3087,24 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B24,"000")&amp;TEXT(C24,"000")</f>
-        <v>010002_020007</v>
+        <v>010002_020006</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2947,34 +3129,29 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B25,"000")&amp;TEXT(C25,"000")</f>
-        <v>010002_100001</v>
+        <v>010002_020007</v>
       </c>
       <c r="B25" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2994,34 +3171,31 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B26,"000")&amp;TEXT(C26,"000")</f>
-        <v>010002_100002</v>
+        <v>010002_020008</v>
       </c>
       <c r="B26" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3041,15 +3215,38 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B27,"000")&amp;TEXT(C27,"000")</f>
+        <v>010002_100001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3068,14 +3265,91 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B28,"000")&amp;TEXT(C28,"000")</f>
+        <v>010002_100002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I19" r:id="rId1"/>
-    <hyperlink ref="I25" r:id="rId2"/>
-    <hyperlink ref="I26" r:id="rId3"/>
-    <hyperlink ref="I18" r:id="rId4"/>
+    <hyperlink ref="J20" r:id="rId1"/>
+    <hyperlink ref="J27" r:id="rId2"/>
+    <hyperlink ref="J28" r:id="rId3"/>
+    <hyperlink ref="J19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3086,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -3098,6 +3372,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -3105,10 +3380,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3149,26 +3424,26 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
-        <v>010002_010001</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
+        <v>010003_010001</v>
+      </c>
+      <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3190,26 +3465,26 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
-        <v>010002_010002</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
+        <v>010003_010002</v>
+      </c>
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3231,26 +3506,26 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
-        <v>010002_010003</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
+        <v>010003_010003</v>
+      </c>
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3272,26 +3547,26 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
-        <v>010002_020001</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
+        <v>010003_020001</v>
+      </c>
+      <c r="B5" s="8">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3313,30 +3588,30 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
-        <v>010002_020002</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
+        <v>010003_020002</v>
+      </c>
+      <c r="B6" s="8">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3358,30 +3633,30 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
-        <v>010002_020003</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
+        <v>010003_020003</v>
+      </c>
+      <c r="B7" s="8">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3403,30 +3678,30 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
-        <v>010002_020004</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
+        <v>010003_020004</v>
+      </c>
+      <c r="B8" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
         <v>18742</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3448,26 +3723,26 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
-        <v>010002_020005</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
+        <v>010003_020005</v>
+      </c>
+      <c r="B9" s="8">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
+      <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
@@ -3491,26 +3766,26 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
-        <v>010002_020006</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
+        <v>010003_020006</v>
+      </c>
+      <c r="B10" s="8">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3532,19 +3807,127 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="11" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B11,"000")&amp;TEXT(C11,"000")</f>
+        <v>010003_020007</v>
+      </c>
+      <c r="B11" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="11" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B12,"000")&amp;TEXT(C12,"000")</f>
+        <v>010003_020008</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="8" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B13,"000")&amp;TEXT(C13,"000")</f>
+        <v>010003_020009</v>
+      </c>
+      <c r="B13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -3590,6 +3973,21 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ugv/production_v1/parts_list.xlsx
+++ b/ugv/production_v1/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -349,6 +349,13 @@
   </si>
   <si>
     <t>going to be discontinued</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tie-wrap</t>
+  </si>
+  <si>
+    <t>tie-wrap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +464,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -468,6 +475,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,7 +501,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -511,42 +520,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Yu Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Yu Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -933,6 +910,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Yu Gothic"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
@@ -953,6 +947,23 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Yu Gothic"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1121,8 +1132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:J11" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:J12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:J12"/>
   <tableColumns count="10">
     <tableColumn id="1" name="No" dataDxfId="32">
       <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
@@ -1133,50 +1144,50 @@
     <tableColumn id="5" name="Num" dataDxfId="28"/>
     <tableColumn id="6" name="Parts Number" dataDxfId="27"/>
     <tableColumn id="7" name="Supplyer" dataDxfId="26"/>
-    <tableColumn id="10" name="Note" dataDxfId="0"/>
-    <tableColumn id="8" name="Check" dataDxfId="25"/>
-    <tableColumn id="9" name="URL" dataDxfId="24"/>
+    <tableColumn id="10" name="Note" dataDxfId="25"/>
+    <tableColumn id="8" name="Check" dataDxfId="24"/>
+    <tableColumn id="9" name="URL" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A1:J28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:J28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A1:J29" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:J29"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="No" dataDxfId="21">
+    <tableColumn id="1" name="No" dataDxfId="20">
       <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Parts Type" dataDxfId="20"/>
-    <tableColumn id="3" name="Sub No" dataDxfId="19"/>
-    <tableColumn id="4" name="Parts Name" dataDxfId="18"/>
-    <tableColumn id="5" name="Num" dataDxfId="17"/>
-    <tableColumn id="6" name="Parts Number" dataDxfId="16"/>
-    <tableColumn id="7" name="Supplyer" dataDxfId="15"/>
-    <tableColumn id="10" name="Note" dataDxfId="1"/>
-    <tableColumn id="8" name="Check" dataDxfId="14"/>
-    <tableColumn id="9" name="URL" dataDxfId="13"/>
+    <tableColumn id="2" name="Parts Type" dataDxfId="19"/>
+    <tableColumn id="3" name="Sub No" dataDxfId="18"/>
+    <tableColumn id="4" name="Parts Name" dataDxfId="17"/>
+    <tableColumn id="5" name="Num" dataDxfId="16"/>
+    <tableColumn id="6" name="Parts Number" dataDxfId="15"/>
+    <tableColumn id="7" name="Supplyer" dataDxfId="14"/>
+    <tableColumn id="10" name="Note" dataDxfId="13"/>
+    <tableColumn id="8" name="Check" dataDxfId="12"/>
+    <tableColumn id="9" name="URL" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="10">
+    <tableColumn id="1" name="No" dataDxfId="8">
       <calculatedColumnFormula>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$4,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Parts Type" dataDxfId="9"/>
-    <tableColumn id="3" name="Sub No" dataDxfId="8"/>
-    <tableColumn id="4" name="Parts Name" dataDxfId="7"/>
-    <tableColumn id="5" name="Num" dataDxfId="6"/>
-    <tableColumn id="6" name="Parts Number" dataDxfId="5"/>
-    <tableColumn id="7" name="Supplyer" dataDxfId="4"/>
-    <tableColumn id="8" name="Check" dataDxfId="3"/>
-    <tableColumn id="9" name="URL" dataDxfId="2"/>
+    <tableColumn id="2" name="Parts Type" dataDxfId="7"/>
+    <tableColumn id="3" name="Sub No" dataDxfId="6"/>
+    <tableColumn id="4" name="Parts Name" dataDxfId="5"/>
+    <tableColumn id="5" name="Num" dataDxfId="4"/>
+    <tableColumn id="6" name="Parts Number" dataDxfId="3"/>
+    <tableColumn id="7" name="Supplyer" dataDxfId="2"/>
+    <tableColumn id="8" name="Check" dataDxfId="1"/>
+    <tableColumn id="9" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1590,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1852,28 +1863,24 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="7" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
-        <v>010001_020001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>010001_010003</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1893,23 +1900,580 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
-        <v>010001_020002</v>
+        <v>010001_020001</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
+        <v>010001_020002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
+        <v>010001_020003</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B11,"000")&amp;TEXT(C11,"000")</f>
+        <v>010001_100001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B12,"000")&amp;TEXT(C12,"000")</f>
+        <v>010001_100002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J11" r:id="rId1"/>
+    <hyperlink ref="J12" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="10" max="10" width="65.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
+        <v>010002_001001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
+        <v>010002_001002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
+        <v>010002_001003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
+        <v>010002_001004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
+        <v>010002_001005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
+        <v>010002_001006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
+        <v>010002_001007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1937,517 +2501,6 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
-        <v>010001_020003</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B10,"000")&amp;TEXT(C10,"000")</f>
-        <v>010001_100001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$2,"000")&amp;"_"&amp;TEXT(B11,"000")&amp;TEXT(C11,"000")</f>
-        <v>010001_100002</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-    <hyperlink ref="J11" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="10" max="10" width="65.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B2,"000")&amp;TEXT(C2,"000")</f>
-        <v>010002_001001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B3,"000")&amp;TEXT(C3,"000")</f>
-        <v>010002_001002</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B4,"000")&amp;TEXT(C4,"000")</f>
-        <v>010002_001003</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B5,"000")&amp;TEXT(C5,"000")</f>
-        <v>010002_001004</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B6,"000")&amp;TEXT(C6,"000")</f>
-        <v>010002_001005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B7,"000")&amp;TEXT(C7,"000")</f>
-        <v>010002_001006</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="str">
-        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B8,"000")&amp;TEXT(C8,"000")</f>
-        <v>010002_001007</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B9,"000")&amp;TEXT(C9,"000")</f>
         <v>010002_001008</v>
@@ -2870,27 +2923,25 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B19,"000")&amp;TEXT(C19,"000")</f>
-        <v>010002_020001</v>
+        <v>010002_010004</v>
       </c>
       <c r="B19" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2914,19 +2965,19 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B20,"000")&amp;TEXT(C20,"000")</f>
-        <v>010002_020002</v>
+        <v>010002_020001</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2958,27 +3009,27 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B21,"000")&amp;TEXT(C21,"000")</f>
-        <v>010002_020003</v>
+        <v>010002_020002</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3002,23 +3053,21 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B22,"000")&amp;TEXT(C22,"000")</f>
-        <v>010002_020004</v>
+        <v>010002_020003</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3048,21 +3097,23 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B23,"000")&amp;TEXT(C23,"000")</f>
-        <v>010002_020005</v>
+        <v>010002_020004</v>
       </c>
       <c r="B23" s="1">
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
@@ -3092,23 +3143,25 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B24,"000")&amp;TEXT(C24,"000")</f>
-        <v>010002_020006</v>
+        <v>010002_020005</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3134,19 +3187,19 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B25,"000")&amp;TEXT(C25,"000")</f>
-        <v>010002_020007</v>
+        <v>010002_020006</v>
       </c>
       <c r="B25" s="1">
         <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3176,25 +3229,23 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B26,"000")&amp;TEXT(C26,"000")</f>
-        <v>010002_020008</v>
+        <v>010002_020007</v>
       </c>
       <c r="B26" s="1">
         <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3220,33 +3271,27 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B27,"000")&amp;TEXT(C27,"000")</f>
-        <v>010002_100001</v>
+        <v>010002_020008</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3270,30 +3315,32 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B28,"000")&amp;TEXT(C28,"000")</f>
-        <v>010002_100002</v>
+        <v>010002_100001</v>
       </c>
       <c r="B28" s="1">
         <v>100</v>
       </c>
       <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="4" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3316,13 +3363,33 @@
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="1" t="str">
+        <f>TEXT(Meta!$B$2,"000")&amp;TEXT(Meta!$E$3,"000")&amp;"_"&amp;TEXT(B29,"000")&amp;TEXT(C29,"000")</f>
+        <v>010002_100002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3343,13 +3410,41 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1"/>
-    <hyperlink ref="J27" r:id="rId2"/>
-    <hyperlink ref="J28" r:id="rId3"/>
-    <hyperlink ref="J19" r:id="rId4"/>
+    <hyperlink ref="J21" r:id="rId1"/>
+    <hyperlink ref="J28" r:id="rId2"/>
+    <hyperlink ref="J29" r:id="rId3"/>
+    <hyperlink ref="J20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3362,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
